--- a/biology/Botanique/Kalmiopsis_leachiana/Kalmiopsis_leachiana.xlsx
+++ b/biology/Botanique/Kalmiopsis_leachiana/Kalmiopsis_leachiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kalmiopsis leachiana est une espèce de plante à fleurs de la famille des Ericaceae. 
 C'est une espèce rare, endémique des monts Siskiyou au sud-ouest de l'Oregon, où elle est particulièrement protégée dans la réserve biologique intégrale Kalmiopsis. La réserve a pris le nom de la plante. La fleur a été découverte en 1930 par Lilla Leech. Son feuillage est persistant et ses fleurs sont de couleur rose-violet, de 6 à 9 par grappes.
@@ -512,7 +524,9 @@
           <t>Liens taxonomiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Référence Flora of North America : Kalmiopsis leachiana  
 (en) Référence Catalogue of Life : Kalmiopsis leachiana (L. F. Hend.) Rehder (consulté le 19 décembre 2020)
